--- a/Assets/Excel/汇总.xlsx
+++ b/Assets/Excel/汇总.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -460,25 +460,34 @@
         <color rgb="FF008080"/>
         <sz val="11"/>
       </rPr>
-      <t>迟到 -42分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">_x000A_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </rPr>
-      <t xml:space="preserve">_x000A_</t>
+      <t>迟到 18分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">_x000A_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </rPr>
+      <t xml:space="preserve">_x000A_</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </rPr>
+      <t>调休 2小时</t>
     </r>
     <r>
       <rPr>
@@ -724,6 +733,11 @@
       </rPr>
       <t xml:space="preserve">_x000A_</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+调休 2小时
+</t>
   </si>
   <si>
     <t/>
@@ -1018,13 +1032,13 @@
         <v>33</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
